--- a/docs/NeteaseCloudMusicApi.xlsx
+++ b/docs/NeteaseCloudMusicApi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\Song-App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF5CF1-6067-460E-A793-9BC1FA730836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B5DE6B-AD66-4EE5-8DFA-2F51752CD84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3096" yWindow="1032" windowWidth="17280" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1468,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G3" t="s">
@@ -1746,7 +1746,7 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G13" t="s">
